--- a/redes_neurais_pratica/final_activities/perguntas.xlsx
+++ b/redes_neurais_pratica/final_activities/perguntas.xlsx
@@ -128,22 +128,22 @@
     <t xml:space="preserve">Trabalha com geo?</t>
   </si>
   <si>
-    <t xml:space="preserve">Produz mapinha?</t>
+    <t xml:space="preserve">Você faz mapinha?</t>
   </si>
   <si>
     <t xml:space="preserve">Qual o valor de um mapa social?</t>
   </si>
   <si>
-    <t xml:space="preserve">Geomarketing empreendimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licenciamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profissionais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webmaps</t>
+    <t xml:space="preserve">Quanto valor de analise de implantação de empreendimento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você tem pacotes de mapas para licenciamento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual os profissionais que você possui na equipe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vocês produzem webmaps?</t>
   </si>
   <si>
     <t xml:space="preserve">Vocês geram visualizadores geográficos?</t>
@@ -159,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -186,6 +186,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +235,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,6 +260,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,11 +283,11 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.81"/>
@@ -540,7 +549,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="51.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="1" t="n">
@@ -548,7 +557,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="51.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="1" t="n">
@@ -556,7 +565,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="51.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="1" t="n">
@@ -564,7 +573,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="51.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="1" t="n">
@@ -572,7 +581,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="51.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="1" t="n">
@@ -580,7 +589,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="51.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="1" t="n">
@@ -640,7 +649,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.36"/>
